--- a/biology/Zoologie/Akmonistion/Akmonistion.xlsx
+++ b/biology/Zoologie/Akmonistion/Akmonistion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Akmonistion zangerli
 Akmonistion est un genre éteint de poissons cartilagineux appartenant à la famille des Stethacanthidae. Des restes de cet animal ont été découverts en Écosse et l'espèce fut décrite en 2001.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit du descendant du genre Stethacanthus et il a vécu au Carbonifère il y a environ 325 et 295 Ma. Sa taille est estimée à 1,80 m de long. Comme certains requins actuels, Akmonistion zangerli vivait en eau peu profonde où il chassait des amphibiens primitifs tels que Crassigyrinus scoticus[réf. nécessaire]. L'épithète spécifique zangerli est dédiée à Rainer Zangerl, paléontologue spécialiste des requins et tortues préhistoriques.
 </t>
@@ -544,7 +558,9 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme Stethacanthus, les mâles d'Akmonistion zangerli possédaient des sortes d'« enclumes » sur le dos.
 </t>
